--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>DM</t>
+  </si>
+  <si>
+    <t>WP21120135S01859</t>
+  </si>
+  <si>
+    <t>WP21120135S01082</t>
   </si>
 </sst>
 </file>
@@ -643,6 +649,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -686,9 +695,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1036,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1111,58 +1117,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1193,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1224,9 +1230,11 @@
       <c r="G6" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="48"/>
+      <c r="H6" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="I6" s="53"/>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="64" t="s">
         <v>64</v>
       </c>
       <c r="K6" s="1"/>
@@ -1243,7 +1251,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1269,9 +1277,11 @@
       <c r="G7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="37" t="s">
+        <v>71</v>
+      </c>
       <c r="I7" s="53"/>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="64" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="1"/>
@@ -1288,7 +1298,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1317,7 +1327,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1356,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1375,7 +1385,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1404,7 +1414,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1433,7 +1443,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1464,7 +1474,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1503,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1532,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1551,7 +1561,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2842,43 +2852,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2923,58 +2933,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="78" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -2999,23 +3009,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="77"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3041,7 +3051,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3072,7 +3082,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3101,7 +3111,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3130,7 +3140,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3159,7 +3169,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3188,7 +3198,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3217,7 +3227,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3248,7 +3258,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3277,7 +3287,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3306,7 +3316,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3335,7 +3345,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang5\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang5\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -240,13 +240,16 @@
     <t>Đổi mới thiết bị</t>
   </si>
   <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>WP21120135S01859</t>
   </si>
   <si>
     <t>WP21120135S01082</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>ĐM</t>
   </si>
 </sst>
 </file>
@@ -652,6 +655,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -669,30 +696,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,43 +1039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1117,58 +1120,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="71" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1193,23 +1196,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="78"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1231,7 +1234,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="64" t="s">
@@ -1244,14 +1247,20 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1278,7 +1287,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="64" t="s">
@@ -1291,14 +1300,20 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1342,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1371,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1385,7 +1400,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1414,7 +1429,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1458,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1474,7 +1489,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1503,7 +1518,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1532,7 +1547,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1576,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1711,7 +1726,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2020,7 +2035,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2212,7 +2227,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2298,7 +2313,7 @@
       </c>
       <c r="V40" s="9">
         <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W40" s="13"/>
     </row>
@@ -2791,13 +2806,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2809,6 +2817,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2852,43 +2867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2933,58 +2948,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="73"/>
+      <c r="M4" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="78" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="73" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3009,23 +3024,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="65"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="65"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="73"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,7 +3066,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3082,7 +3097,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="66"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3111,7 +3126,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="66"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3155,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="66"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3169,7 +3184,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="66"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3198,7 +3213,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="66"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3242,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="65" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3258,7 +3273,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="66"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3287,7 +3302,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="66"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3316,7 +3331,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="66"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3345,7 +3360,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4576,13 +4591,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4594,6 +4602,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang5/2.XulyBH/XLBH2205_DLVictory.xlsx
@@ -655,6 +655,30 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,32 +694,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,43 +1039,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1120,58 +1120,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -1196,23 +1196,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,9 @@
       <c r="B6" s="61">
         <v>44707</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44707</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>63</v>
       </c>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1275,7 +1277,9 @@
       <c r="B7" s="61">
         <v>44707</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44707</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>63</v>
       </c>
@@ -1313,7 +1317,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1346,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1375,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1404,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1429,7 +1433,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1462,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1489,7 +1493,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1522,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1547,7 +1551,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1576,7 +1580,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2806,6 +2810,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2817,13 +2828,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2867,43 +2871,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -2948,58 +2952,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="78" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="73" t="s">
+      <c r="V4" s="65" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -3024,23 +3028,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="73"/>
+      <c r="J5" s="65"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="73"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="79"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="78"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3066,7 +3070,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="73" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3097,7 +3101,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="66"/>
+      <c r="U7" s="74"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3126,7 +3130,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="74"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3155,7 +3159,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="66"/>
+      <c r="U9" s="74"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3184,7 +3188,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="66"/>
+      <c r="U10" s="74"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3213,7 +3217,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="66"/>
+      <c r="U11" s="74"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3242,7 +3246,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="73" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3273,7 +3277,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="66"/>
+      <c r="U13" s="74"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3302,7 +3306,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="66"/>
+      <c r="U14" s="74"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3331,7 +3335,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="66"/>
+      <c r="U15" s="74"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3360,7 +3364,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="67"/>
+      <c r="U16" s="75"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4591,6 +4595,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4602,13 +4613,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
